--- a/Banc de test/Tests_capteur.xlsx
+++ b/Banc de test/Tests_capteur.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\INSA\4A - GP\S2\Capteur\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\INSA\4A - GP\S2\Capteur\Banc de test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6AF71B-6BFE-4848-80F7-64D2D0F42108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059FCAD6-65E0-47B0-AA0A-EEFFEEF7E8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8B267832-7E49-4AD6-A3E6-50DFC0CB5A15}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>4B</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>ε</t>
+  </si>
+  <si>
+    <t>e(papier)</t>
   </si>
 </sst>
 </file>
@@ -110,27 +116,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="14">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -242,17 +233,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -291,54 +271,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,13 +348,27 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -396,11 +377,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Variation relative</a:t>
+              <a:t>Relative</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> de résistance en fonction du diamètre du demi-cercle en détente</a:t>
+              <a:t> change in resistance with respect to sensor deformation in relaxation</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -426,13 +407,27 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -449,97 +444,6 @@
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Flex sensor</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Feuil1!$C$5:$C$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Feuil1!$F$5:$F$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>9.8712446351931327E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.15879828326180262</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1931330472103005</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.23605150214592277</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3298-4170-A330-62A6DAB590B7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -584,28 +488,28 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$C$5:$C$8</c:f>
+              <c:f>Feuil1!$D$5:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>6.6666666666666671E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$I$5:$I$8</c:f>
+              <c:f>Feuil1!$J$5:$J$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -675,28 +579,28 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$C$5:$C$8</c:f>
+              <c:f>Feuil1!$D$5:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>6.6666666666666671E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$L$5:$L$8</c:f>
+              <c:f>Feuil1!$M$5:$M$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -766,28 +670,28 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$C$5:$C$8</c:f>
+              <c:f>Feuil1!$D$5:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>6.6666666666666671E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$O$5:$O$8</c:f>
+              <c:f>Feuil1!$P$5:$P$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -823,6 +727,115 @@
         </c:dLbls>
         <c:axId val="1441577344"/>
         <c:axId val="1441580704"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:v>Flex sensor</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:trendline>
+                  <c:spPr>
+                    <a:ln w="19050" cap="rnd">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:prstDash val="sysDot"/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:trendlineType val="linear"/>
+                  <c:dispRSqr val="0"/>
+                  <c:dispEq val="0"/>
+                </c:trendline>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Feuil1!$D$5:$D$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>4.0000000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5.0000000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>6.6666666666666671E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.01</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Feuil1!$G$5:$G$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>9.8712446351931327E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.15879828326180262</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.1931330472103005</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.23605150214592277</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-3298-4170-A330-62A6DAB590B7}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="1441577344"/>
@@ -866,8 +879,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Diamètre du cercle (en cm)</a:t>
+                  <a:t>Deformation  </a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>ε</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1180,14 +1198,16 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Variation relative</a:t>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Relative change in resistance with respect to sensor deformation in compression</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> de résistance en fonction du diamètre du demi-cercle en compression</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1278,28 +1298,28 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$C$5:$C$8</c:f>
+              <c:f>Feuil1!$D$9:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>6.6666666666666671E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$I$9:$I$12</c:f>
+              <c:f>Feuil1!$J$9:$J$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1366,28 +1386,28 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$C$5:$C$8</c:f>
+              <c:f>Feuil1!$D$9:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>6.6666666666666671E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$L$9:$L$12</c:f>
+              <c:f>Feuil1!$M$9:$M$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1457,28 +1477,28 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$C$5:$C$8</c:f>
+              <c:f>Feuil1!$D$9:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>6.6666666666666671E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$O$9:$O$12</c:f>
+              <c:f>Feuil1!$P$9:$P$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1556,9 +1576,35 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Diamètre du cercle (en cm)</a:t>
+                  <a:rPr lang="en-GB" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Deformation  </a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>ε</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3345,427 +3391,465 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A86445E9-7CA4-4042-87F7-24968B8F0562}">
-  <dimension ref="B2:O12"/>
+  <dimension ref="B2:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="23" t="s">
+    <row r="2" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="23" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="23" t="s">
+      <c r="I3" s="14"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="24"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="23" t="s">
+      <c r="L3" s="14"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="25"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="15"/>
     </row>
-    <row r="4" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="27" t="s">
+    <row r="4" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="F4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="G4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="H4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="I4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="J4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="K4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="L4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="26" t="s">
+      <c r="M4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="N4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="26" t="s">
+      <c r="O4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="26" t="s">
+      <c r="P4" s="12" t="s">
         <v>9</v>
       </c>
+      <c r="R4" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="28" t="s">
+    <row r="5" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1">
         <v>5</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
+        <f>$R$5/C5</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E5" s="8">
         <v>2.33</v>
       </c>
-      <c r="E5" s="11">
+      <c r="F5" s="8">
         <v>2.1</v>
       </c>
-      <c r="F5" s="11">
-        <f>ABS(E5-D5)/D5</f>
+      <c r="G5" s="8">
+        <f>ABS(F5-E5)/E5</f>
         <v>9.8712446351931327E-2</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>2.14</v>
       </c>
-      <c r="H5" s="11">
+      <c r="I5" s="8">
         <v>1.85</v>
       </c>
-      <c r="I5" s="11">
-        <f>ABS(H5-G5)/G5</f>
+      <c r="J5" s="8">
+        <f>ABS(I5-H5)/H5</f>
         <v>0.1355140186915888</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>3.16</v>
       </c>
-      <c r="K5" s="11">
+      <c r="L5" s="8">
         <v>3</v>
       </c>
-      <c r="L5" s="11">
-        <f>ABS(K5-J5)/J5</f>
+      <c r="M5" s="8">
+        <f>ABS(L5-K5)/K5</f>
         <v>5.0632911392405104E-2</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <v>3.5</v>
       </c>
-      <c r="N5" s="11">
+      <c r="O5" s="8">
         <v>3.23</v>
       </c>
-      <c r="O5" s="2">
-        <f>ABS(N5-M5)/M5</f>
+      <c r="P5" s="2">
+        <f>ABS(O5-N5)/N5</f>
         <v>7.7142857142857152E-2</v>
       </c>
+      <c r="R5" s="7">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="29"/>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B6" s="17"/>
       <c r="C6" s="3">
         <v>4</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
+        <f t="shared" ref="D6:D12" si="0">$R$5/C6</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E6" s="19">
         <v>2.33</v>
       </c>
-      <c r="E6" s="8">
+      <c r="F6">
         <v>1.96</v>
       </c>
-      <c r="F6" s="8">
-        <f t="shared" ref="F6:F8" si="0">ABS(E6-D6)/D6</f>
+      <c r="G6">
+        <f t="shared" ref="G6:G8" si="1">ABS(F6-E6)/E6</f>
         <v>0.15879828326180262</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <v>2.14</v>
       </c>
-      <c r="H6" s="8">
+      <c r="I6">
         <v>1.77</v>
       </c>
-      <c r="I6" s="8">
-        <f t="shared" ref="I6:I8" si="1">ABS(H6-G6)/G6</f>
+      <c r="J6">
+        <f t="shared" ref="J6:J8" si="2">ABS(I6-H6)/H6</f>
         <v>0.17289719626168229</v>
       </c>
-      <c r="J6" s="17">
+      <c r="K6" s="3">
         <v>3.16</v>
       </c>
-      <c r="K6" s="13">
+      <c r="L6">
         <v>2.93</v>
       </c>
-      <c r="L6" s="8">
-        <f t="shared" ref="L6:L8" si="2">ABS(K6-J6)/J6</f>
+      <c r="M6">
+        <f t="shared" ref="M6:M8" si="3">ABS(L6-K6)/K6</f>
         <v>7.2784810126582264E-2</v>
       </c>
-      <c r="M6" s="3">
+      <c r="N6" s="3">
         <v>3.5</v>
       </c>
-      <c r="N6" s="8">
+      <c r="O6">
         <v>3.18</v>
       </c>
-      <c r="O6" s="4">
-        <f t="shared" ref="O6:O8" si="3">ABS(N6-M6)/M6</f>
+      <c r="P6" s="4">
+        <f t="shared" ref="P6:P8" si="4">ABS(O6-N6)/N6</f>
         <v>9.1428571428571387E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="29"/>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B7" s="17"/>
       <c r="C7" s="3">
         <v>3</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="E7" s="19">
         <v>2.33</v>
       </c>
-      <c r="E7" s="8">
+      <c r="F7">
         <v>1.88</v>
       </c>
-      <c r="F7" s="8">
-        <f t="shared" si="0"/>
+      <c r="G7">
+        <f t="shared" si="1"/>
         <v>0.1931330472103005</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <v>2.14</v>
       </c>
-      <c r="H7" s="8">
+      <c r="I7">
         <v>1.47</v>
       </c>
-      <c r="I7" s="8">
-        <f t="shared" si="1"/>
+      <c r="J7">
+        <f t="shared" si="2"/>
         <v>0.31308411214953275</v>
       </c>
-      <c r="J7" s="17">
+      <c r="K7" s="3">
         <v>3.16</v>
       </c>
-      <c r="K7" s="13">
+      <c r="L7">
         <v>2.83</v>
       </c>
-      <c r="L7" s="8">
-        <f t="shared" si="2"/>
+      <c r="M7">
+        <f t="shared" si="3"/>
         <v>0.10443037974683546</v>
       </c>
-      <c r="M7" s="3">
+      <c r="N7" s="3">
         <v>3.5</v>
       </c>
-      <c r="N7" s="8">
+      <c r="O7">
         <v>3.03</v>
       </c>
-      <c r="O7" s="4">
-        <f t="shared" si="3"/>
+      <c r="P7" s="4">
+        <f t="shared" si="4"/>
         <v>0.13428571428571434</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="30"/>
+    <row r="8" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="18"/>
       <c r="C8" s="5">
         <v>2</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="6">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="E8" s="9">
         <v>2.33</v>
       </c>
-      <c r="E8" s="12">
+      <c r="F8" s="9">
         <v>1.78</v>
       </c>
-      <c r="F8" s="12">
+      <c r="G8" s="9">
+        <f t="shared" si="1"/>
+        <v>0.23605150214592277</v>
+      </c>
+      <c r="H8" s="5">
+        <v>2.14</v>
+      </c>
+      <c r="I8" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J8" s="9">
+        <f t="shared" si="2"/>
+        <v>0.3925233644859813</v>
+      </c>
+      <c r="K8" s="5">
+        <v>3.18</v>
+      </c>
+      <c r="L8" s="9">
+        <v>2.72</v>
+      </c>
+      <c r="M8" s="9">
+        <f t="shared" si="3"/>
+        <v>0.14465408805031443</v>
+      </c>
+      <c r="N8" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="O8">
+        <v>2.9</v>
+      </c>
+      <c r="P8" s="4">
+        <f t="shared" si="4"/>
+        <v>0.17142857142857146</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2">
+        <f>$R$5/C9</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="1">
+        <v>2</v>
+      </c>
+      <c r="I9" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="J9" s="2">
+        <f>ABS(I9-H9)/H9</f>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="K9" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="L9" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="M9" s="2">
+        <f>ABS(L9-K9)/K9</f>
+        <v>6.4516129032257979E-2</v>
+      </c>
+      <c r="N9" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="O9" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="P9" s="2">
+        <f>ABS(O9-N9)/N9</f>
+        <v>9.3749999999999944E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B10" s="17"/>
+      <c r="C10" s="3">
+        <v>4</v>
+      </c>
+      <c r="D10" s="4">
         <f t="shared" si="0"/>
-        <v>0.23605150214592277</v>
-      </c>
-      <c r="G8" s="5">
-        <v>2.14</v>
-      </c>
-      <c r="H8" s="12">
-        <v>1.3</v>
-      </c>
-      <c r="I8" s="12">
-        <f t="shared" si="1"/>
-        <v>0.3925233644859813</v>
-      </c>
-      <c r="J8" s="18">
-        <v>3.18</v>
-      </c>
-      <c r="K8" s="19">
-        <v>2.72</v>
-      </c>
-      <c r="L8" s="12">
-        <f t="shared" si="2"/>
-        <v>0.14465408805031443</v>
-      </c>
-      <c r="M8" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="N8" s="8">
-        <v>2.9</v>
-      </c>
-      <c r="O8" s="4">
-        <f t="shared" si="3"/>
-        <v>0.17142857142857146</v>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>3.54</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" ref="J10:J11" si="5">ABS(I10-H10)/H10</f>
+        <v>0.77</v>
+      </c>
+      <c r="K10" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="L10">
+        <v>3.35</v>
+      </c>
+      <c r="M10" s="4">
+        <f t="shared" ref="M10:M12" si="6">ABS(L10-K10)/K10</f>
+        <v>8.0645161290322578E-2</v>
+      </c>
+      <c r="N10" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="O10">
+        <v>3.6</v>
+      </c>
+      <c r="P10" s="4">
+        <f t="shared" ref="P10:P12" si="7">ABS(O10-N10)/N10</f>
+        <v>0.12499999999999997</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="9">
-        <v>5</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="1">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B11" s="17"/>
+      <c r="C11" s="3">
+        <v>3</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="3">
         <v>2</v>
       </c>
-      <c r="H9" s="20">
+      <c r="I11">
+        <v>3.86</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="5"/>
+        <v>0.92999999999999994</v>
+      </c>
+      <c r="K11" s="3">
+        <v>2.88</v>
+      </c>
+      <c r="L11">
+        <v>3.15</v>
+      </c>
+      <c r="M11" s="4">
+        <f t="shared" si="6"/>
+        <v>9.3750000000000014E-2</v>
+      </c>
+      <c r="N11" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="O11">
+        <v>3.69</v>
+      </c>
+      <c r="P11" s="4">
+        <f t="shared" si="7"/>
+        <v>0.15312499999999993</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="18"/>
+      <c r="C12" s="5">
+        <v>2</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="5">
+        <v>2.6</v>
+      </c>
+      <c r="L12" s="9">
+        <v>3.04</v>
+      </c>
+      <c r="M12" s="6">
+        <f t="shared" si="6"/>
+        <v>0.16923076923076921</v>
+      </c>
+      <c r="N12" s="5">
         <v>3.3</v>
       </c>
-      <c r="I9" s="21">
-        <f>ABS(H9-G9)/G9</f>
-        <v>0.64999999999999991</v>
-      </c>
-      <c r="J9" s="1">
-        <v>3.1</v>
-      </c>
-      <c r="K9" s="11">
-        <v>3.3</v>
-      </c>
-      <c r="L9" s="2">
-        <f>ABS(K9-J9)/J9</f>
-        <v>6.4516129032257979E-2</v>
-      </c>
-      <c r="M9" s="1">
-        <v>3.2</v>
-      </c>
-      <c r="N9" s="11">
-        <v>3.5</v>
-      </c>
-      <c r="O9" s="2">
-        <f>ABS(N9-M9)/M9</f>
-        <v>9.3749999999999944E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="29"/>
-      <c r="C10" s="7">
+      <c r="O12" s="9">
         <v>4</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3">
-        <v>2</v>
-      </c>
-      <c r="H10" s="13">
-        <v>3.54</v>
-      </c>
-      <c r="I10" s="14">
-        <f t="shared" ref="I10:I11" si="4">ABS(H10-G10)/G10</f>
-        <v>0.77</v>
-      </c>
-      <c r="J10" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="K10" s="13">
-        <v>3.35</v>
-      </c>
-      <c r="L10" s="4">
-        <f t="shared" ref="L10:L12" si="5">ABS(K10-J10)/J10</f>
-        <v>8.0645161290322578E-2</v>
-      </c>
-      <c r="M10" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="N10" s="8">
-        <v>3.6</v>
-      </c>
-      <c r="O10" s="4">
-        <f t="shared" ref="O10:O12" si="6">ABS(N10-M10)/M10</f>
-        <v>0.12499999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="29"/>
-      <c r="C11" s="7">
-        <v>3</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="3">
-        <v>2</v>
-      </c>
-      <c r="H11" s="13">
-        <v>3.86</v>
-      </c>
-      <c r="I11" s="14">
-        <f t="shared" si="4"/>
-        <v>0.92999999999999994</v>
-      </c>
-      <c r="J11" s="3">
-        <v>2.88</v>
-      </c>
-      <c r="K11" s="13">
-        <v>3.15</v>
-      </c>
-      <c r="L11" s="4">
-        <f t="shared" si="5"/>
-        <v>9.3750000000000014E-2</v>
-      </c>
-      <c r="M11" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="N11" s="8">
-        <v>3.69</v>
-      </c>
-      <c r="O11" s="4">
-        <f t="shared" si="6"/>
-        <v>0.15312499999999993</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="30"/>
-      <c r="C12" s="10">
-        <v>2</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="5">
-        <v>2.6</v>
-      </c>
-      <c r="K12" s="12">
-        <v>3.04</v>
-      </c>
-      <c r="L12" s="6">
-        <f t="shared" si="5"/>
-        <v>0.16923076923076921</v>
-      </c>
-      <c r="M12" s="5">
-        <v>3.3</v>
-      </c>
-      <c r="N12" s="12">
-        <v>4</v>
-      </c>
-      <c r="O12" s="6">
-        <f t="shared" si="6"/>
+      <c r="P12" s="6">
+        <f t="shared" si="7"/>
         <v>0.21212121212121218</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="M3:O3"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="B9:B12"/>
-    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
